--- a/NSGA-II_results/resource_consumption_results.xlsx
+++ b/NSGA-II_results/resource_consumption_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619147B0-C360-4BA9-A878-2011F769E3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D37B8E-3F53-4679-9022-DE60FEE5743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15345" xr2:uid="{7C0A9D79-2E38-4D0E-B8D8-D461FDF1BF50}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{7C0A9D79-2E38-4D0E-B8D8-D461FDF1BF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -403,194 +401,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BA9528-B013-44E4-AB7C-A306C37BF287}">
-  <dimension ref="A1:BH1"/>
+  <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
+        <v>9.0675000000000008</v>
+      </c>
+      <c r="B1">
+        <v>8.0592500000000005</v>
+      </c>
+      <c r="C1">
+        <v>9.2295833333333341</v>
+      </c>
+      <c r="D1">
+        <v>7.2279999999999998</v>
+      </c>
+      <c r="E1">
+        <v>7.9018750000000004</v>
+      </c>
+      <c r="F1">
+        <v>6.4290277777777778</v>
+      </c>
+      <c r="G1">
+        <v>13.86638888888889</v>
+      </c>
+      <c r="H1">
+        <v>17.451750000000001</v>
+      </c>
+      <c r="I1">
+        <v>8.1228333333333325</v>
+      </c>
+      <c r="J1">
+        <v>10.851388888888888</v>
+      </c>
+      <c r="K1">
+        <v>9.6049999999999986</v>
+      </c>
+      <c r="L1">
+        <v>12.666333333333334</v>
+      </c>
+      <c r="M1">
+        <v>12.817000000000002</v>
+      </c>
+      <c r="N1">
+        <v>9.4609285714285729</v>
+      </c>
+      <c r="O1">
+        <v>9.3646874999999987</v>
+      </c>
+      <c r="P1">
+        <v>6.0887499999999992</v>
+      </c>
+      <c r="Q1">
+        <v>9.7275000000000009</v>
+      </c>
+      <c r="R1">
+        <v>10.777083333333334</v>
+      </c>
+      <c r="S1">
+        <v>6.8019999999999996</v>
+      </c>
+      <c r="T1">
+        <v>47.74499999999999</v>
+      </c>
+      <c r="U1">
+        <v>10.868749999999999</v>
+      </c>
+      <c r="V1">
+        <v>7.2306666666666661</v>
+      </c>
+      <c r="W1">
+        <v>9.9720000000000013</v>
+      </c>
+      <c r="X1">
+        <v>7.6688888888888886</v>
+      </c>
+      <c r="Y1">
+        <v>6.7470833333333333</v>
+      </c>
+      <c r="Z1">
+        <v>7.6765833333333333</v>
+      </c>
+      <c r="AA1">
+        <v>9.42</v>
+      </c>
+      <c r="AB1">
+        <v>11.0885</v>
+      </c>
+      <c r="AC1">
+        <v>12.513500000000001</v>
+      </c>
+      <c r="AD1">
+        <v>7.65</v>
+      </c>
+      <c r="AE1">
+        <v>8.0244999999999997</v>
+      </c>
+      <c r="AF1">
+        <v>7.0217777777777775</v>
+      </c>
+      <c r="AG1">
+        <v>7.67</v>
+      </c>
+      <c r="AH1">
+        <v>10.898</v>
+      </c>
+      <c r="AI1">
+        <v>8.8656249999999979</v>
+      </c>
+      <c r="AJ1">
+        <v>8.0822222222222226</v>
+      </c>
+      <c r="AK1">
+        <v>7.0738888888888889</v>
+      </c>
+      <c r="AL1">
+        <v>7.5945</v>
+      </c>
+      <c r="AM1">
+        <v>12.014062499999998</v>
+      </c>
+      <c r="AN1">
+        <v>10.2895</v>
+      </c>
+      <c r="AO1">
+        <v>10.033958333333333</v>
+      </c>
+      <c r="AP1">
+        <v>10.737500000000001</v>
+      </c>
+      <c r="AQ1">
+        <v>19.871499999999997</v>
+      </c>
+      <c r="AR1">
+        <v>16.850749999999998</v>
+      </c>
+      <c r="AS1">
+        <v>5.9474999999999998</v>
+      </c>
+      <c r="AT1">
+        <v>10.021750000000001</v>
+      </c>
+      <c r="AU1">
+        <v>14.199875</v>
+      </c>
+      <c r="AV1">
+        <v>7.7368124999999992</v>
+      </c>
+      <c r="AW1">
+        <v>8.6440000000000001</v>
+      </c>
+      <c r="AX1">
+        <v>8.9055</v>
+      </c>
+      <c r="AY1">
+        <v>8.2675000000000001</v>
+      </c>
+      <c r="AZ1">
+        <v>15.499499999999999</v>
+      </c>
+      <c r="BA1">
+        <v>12.268214285714286</v>
+      </c>
+      <c r="BB1">
+        <v>6.443888888888889</v>
+      </c>
+      <c r="BC1">
+        <v>9.1812499999999986</v>
+      </c>
+      <c r="BD1">
+        <v>8.0473809523809532</v>
+      </c>
+      <c r="BE1">
+        <v>11.466249999999999</v>
+      </c>
+      <c r="BF1">
+        <v>9.9606349206349218</v>
+      </c>
+      <c r="BG1">
+        <v>7.8179444444444446</v>
+      </c>
+      <c r="BH1">
+        <v>7.8474999999999984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>8.1282777777777788</v>
       </c>
-      <c r="B1">
+      <c r="B3">
         <v>9.1529642857142868</v>
       </c>
-      <c r="C1">
+      <c r="C3">
         <v>7.905125</v>
       </c>
-      <c r="D1">
+      <c r="D3">
         <v>9.984</v>
       </c>
-      <c r="E1">
+      <c r="E3">
         <v>6.9381249999999994</v>
       </c>
-      <c r="F1">
+      <c r="F3">
         <v>6.2922222222222217</v>
       </c>
-      <c r="G1">
+      <c r="G3">
         <v>9.0097222222222229</v>
       </c>
-      <c r="H1">
+      <c r="H3">
         <v>7.4825625000000002</v>
       </c>
-      <c r="I1">
+      <c r="I3">
         <v>11.578500000000002</v>
       </c>
-      <c r="J1">
+      <c r="J3">
         <v>9.6108333333333338</v>
       </c>
-      <c r="K1">
-        <v>7.5206249999999999</v>
-      </c>
-      <c r="L1">
-        <v>12.772</v>
-      </c>
-      <c r="M1">
-        <v>7.6370000000000005</v>
-      </c>
-      <c r="N1">
-        <v>9.4838333333333331</v>
-      </c>
-      <c r="O1">
-        <v>7.3903888888888893</v>
-      </c>
-      <c r="P1">
-        <v>7.3142499999999995</v>
-      </c>
-      <c r="Q1">
-        <v>9.3510000000000009</v>
-      </c>
-      <c r="R1">
-        <v>10.858214285714286</v>
-      </c>
-      <c r="S1">
-        <v>8.3397500000000004</v>
-      </c>
-      <c r="T1">
-        <v>10.182500000000001</v>
-      </c>
-      <c r="U1">
-        <v>8.3208035714285717</v>
-      </c>
-      <c r="V1">
-        <v>7.5172222222222222</v>
-      </c>
-      <c r="W1">
-        <v>8.51</v>
-      </c>
-      <c r="X1">
-        <v>7.4933333333333323</v>
-      </c>
-      <c r="Y1">
-        <v>11.160277777777777</v>
-      </c>
-      <c r="Z1">
-        <v>6.2910000000000004</v>
-      </c>
-      <c r="AA1">
-        <v>8.1992142857142873</v>
-      </c>
-      <c r="AB1">
-        <v>11.528</v>
-      </c>
-      <c r="AC1">
-        <v>7.6202500000000004</v>
-      </c>
-      <c r="AD1">
-        <v>7.2</v>
-      </c>
-      <c r="AE1">
-        <v>6.8475000000000001</v>
-      </c>
-      <c r="AF1">
-        <v>9.0300000000000011</v>
-      </c>
-      <c r="AG1">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="AH1">
-        <v>9.8627083333333339</v>
-      </c>
-      <c r="AI1">
-        <v>7.9432500000000008</v>
-      </c>
-      <c r="AJ1">
-        <v>9.6571428571428584</v>
-      </c>
-      <c r="AK1">
-        <v>9.9388492063492073</v>
-      </c>
-      <c r="AL1">
-        <v>8.9974999999999987</v>
-      </c>
-      <c r="AM1">
-        <v>8.2155555555555555</v>
-      </c>
-      <c r="AN1">
-        <v>10.029</v>
-      </c>
-      <c r="AO1">
-        <v>6.8224999999999989</v>
-      </c>
-      <c r="AP1">
-        <v>10.192142857142859</v>
-      </c>
-      <c r="AQ1">
-        <v>9.9269999999999996</v>
-      </c>
-      <c r="AR1">
-        <v>6.4863749999999989</v>
-      </c>
-      <c r="AS1">
-        <v>8.692499999999999</v>
-      </c>
-      <c r="AT1">
-        <v>10.587222222222223</v>
-      </c>
-      <c r="AU1">
-        <v>14.632638888888888</v>
-      </c>
-      <c r="AV1">
-        <v>6.7497500000000006</v>
-      </c>
-      <c r="AW1">
-        <v>7.9550000000000001</v>
-      </c>
-      <c r="AX1">
-        <v>10.143249999999998</v>
-      </c>
-      <c r="AY1">
-        <v>9.2686111111111114</v>
-      </c>
-      <c r="AZ1">
-        <v>7.902465277777778</v>
-      </c>
-      <c r="BA1">
-        <v>11.150624999999998</v>
-      </c>
-      <c r="BB1">
-        <v>6.8172222222222221</v>
-      </c>
-      <c r="BC1">
-        <v>7.0920000000000005</v>
-      </c>
-      <c r="BD1">
-        <v>12.050357142857143</v>
-      </c>
-      <c r="BE1">
-        <v>15.697777777777777</v>
-      </c>
-      <c r="BF1">
-        <v>12.064</v>
-      </c>
-      <c r="BG1">
-        <v>10.986000000000001</v>
-      </c>
-      <c r="BH1">
-        <v>13.526250000000001</v>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>9.1529642857142868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7.905125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>9.984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6.9381249999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6.2922222222222217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>9.0097222222222229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7.4825625000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>11.578500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9.6108333333333338</v>
       </c>
     </row>
   </sheetData>
@@ -607,9 +682,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -805,9 +880,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1003,9 +1078,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1201,9 +1276,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1399,9 +1474,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1597,9 +1672,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1795,9 +1870,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1993,9 +2068,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -2191,9 +2266,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>

--- a/NSGA-II_results/resource_consumption_results.xlsx
+++ b/NSGA-II_results/resource_consumption_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D37B8E-3F53-4679-9022-DE60FEE5743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526B100-F974-48DB-9B0C-363298DCDA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{7C0A9D79-2E38-4D0E-B8D8-D461FDF1BF50}"/>
+    <workbookView xWindow="4335" yWindow="3225" windowWidth="28800" windowHeight="15345" xr2:uid="{7C0A9D79-2E38-4D0E-B8D8-D461FDF1BF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BA9528-B013-44E4-AB7C-A306C37BF287}">
-  <dimension ref="A1:BH12"/>
+  <dimension ref="A1:BH1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BH1"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>9.0675000000000008</v>
       </c>
@@ -589,83 +589,6 @@
       </c>
       <c r="BH1">
         <v>7.8474999999999984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>8.1282777777777788</v>
-      </c>
-      <c r="B3">
-        <v>9.1529642857142868</v>
-      </c>
-      <c r="C3">
-        <v>7.905125</v>
-      </c>
-      <c r="D3">
-        <v>9.984</v>
-      </c>
-      <c r="E3">
-        <v>6.9381249999999994</v>
-      </c>
-      <c r="F3">
-        <v>6.2922222222222217</v>
-      </c>
-      <c r="G3">
-        <v>9.0097222222222229</v>
-      </c>
-      <c r="H3">
-        <v>7.4825625000000002</v>
-      </c>
-      <c r="I3">
-        <v>11.578500000000002</v>
-      </c>
-      <c r="J3">
-        <v>9.6108333333333338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>9.1529642857142868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>7.905125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>9.984</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6.9381249999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>6.2922222222222217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>9.0097222222222229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>7.4825625000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>11.578500000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>9.6108333333333338</v>
       </c>
     </row>
   </sheetData>
@@ -682,9 +605,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -880,9 +803,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1078,9 +1001,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1276,9 +1199,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1474,9 +1397,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1672,9 +1595,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1870,9 +1793,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -2068,9 +1991,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -2266,9 +2189,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>

--- a/NSGA-II_results/resource_consumption_results.xlsx
+++ b/NSGA-II_results/resource_consumption_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0526B100-F974-48DB-9B0C-363298DCDA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7C457F-72FA-48A1-982F-FB2924707E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="3225" windowWidth="28800" windowHeight="15345" xr2:uid="{7C0A9D79-2E38-4D0E-B8D8-D461FDF1BF50}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{7C0A9D79-2E38-4D0E-B8D8-D461FDF1BF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BA9528-B013-44E4-AB7C-A306C37BF287}">
-  <dimension ref="A1:BH1"/>
+  <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>9.0675000000000008</v>
       </c>
@@ -589,6 +589,56 @@
       </c>
       <c r="BH1">
         <v>7.8474999999999984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>9.0675000000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>8.0592500000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>9.2295833333333341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>7.2279999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7.9018750000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6.4290277777777778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>13.86638888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>17.451750000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>8.1228333333333325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10.851388888888888</v>
       </c>
     </row>
   </sheetData>
@@ -605,9 +655,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -803,9 +853,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1001,9 +1051,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1199,9 +1249,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1397,9 +1447,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1595,9 +1645,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1793,9 +1843,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -1991,9 +2041,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
@@ -2189,9 +2239,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>8.1282777777777788</v>
       </c>
